--- a/regions/2/ckhovrebis done/kharjebi.xlsx
+++ b/regions/2/ckhovrebis done/kharjebi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11055"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -311,19 +311,17 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -338,26 +336,26 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -373,18 +371,6 @@
     <xf numFmtId="166" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="165" fontId="16" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -397,18 +383,18 @@
     <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -719,2393 +705,2688 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O71"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" style="2" customWidth="1"/>
-    <col min="2" max="9" width="9.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="2" max="9" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" customHeight="1">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2">
         <v>2011</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>2012</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>2013</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>2014</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>2015</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="2">
         <v>2016</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="2">
         <v>2017</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="2">
         <v>2018</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="3">
         <v>2019</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="3">
         <v>2020</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="3">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1">
-      <c r="A3" s="9" t="s">
+      <c r="M2" s="3">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>53.74104142937427</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>54.790677911026627</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>57.076088978569288</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>64.787347959626828</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>69.291414541886738</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>69.049601901175137</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <v>69.978382910326019</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="4">
         <v>62.183337999332004</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="13">
         <v>67.242975455728057</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="13">
         <v>67.845335770367043</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="13">
         <v>77.964041572329961</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1">
-      <c r="A4" s="9" t="s">
+      <c r="M3" s="17">
+        <v>92.973453961360136</v>
+      </c>
+      <c r="N3" s="17">
+        <v>101.69242592389988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>39.790143652158434</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>40.731857368571639</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>44.398662068652207</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>52.676670028531014</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>57.303964482905286</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>56.675382826841087</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="4">
         <v>58.733677702462316</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="4">
         <v>51.489400123048085</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="14">
         <v>56.645575460648253</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="14">
         <v>56.950209963226392</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="14">
         <v>65.056176253382603</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1">
-      <c r="A5" s="10" t="s">
+      <c r="M4" s="18">
+        <v>77.900635634404523</v>
+      </c>
+      <c r="N4" s="18">
+        <v>85.246480545800821</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1">
+      <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>17.42545193753611</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>17.551634051110838</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>18.641378950980894</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>20.223674540674118</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>21.100158660989838</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <v>22.673489306862376</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="5">
         <v>24.011869282662239</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="5">
         <v>22.699223627026448</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="15">
         <v>26.26646028439232</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="15">
         <v>27.274904549774693</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="15">
         <v>33.015656998225161</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1">
-      <c r="A6" s="10" t="s">
+      <c r="M5" s="19">
+        <v>38.762508542060516</v>
+      </c>
+      <c r="N5" s="19">
+        <v>39.648537743218611</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1">
+      <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>2.0625352035201994</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>2.0613040746606104</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>2.2507455277359858</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>2.4126784015803389</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>2.7349797986929083</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <v>2.7209505054255043</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="5">
         <v>3.134601213333128</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="5">
         <v>2.6061376355527237</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="15">
         <v>2.7872243405710857</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="15">
         <v>2.727139871068319</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="15">
         <v>2.8966857328160609</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="M6" s="19">
+        <v>3.5190856627553311</v>
+      </c>
+      <c r="N6" s="19">
+        <v>4.0187117908185321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1">
+      <c r="A7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>1.6591557298114601</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>1.573005064648797</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>2.1725558486689329</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>3.2456995505432249</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>2.9681585092832772</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <v>2.2386120310481581</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="5">
         <v>2.5828385898432296</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="5">
         <v>1.9913239176061075</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="15">
         <v>1.8166533644784009</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="15">
         <v>2.2607347184618041</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="15">
         <v>2.2634487176200975</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1">
-      <c r="A8" s="10" t="s">
+      <c r="M7" s="19">
+        <v>2.7008196023009297</v>
+      </c>
+      <c r="N7" s="19">
+        <v>4.7673200478335529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1">
+      <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>4.6679815795219861</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>4.9937802082689808</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>4.4659293349427704</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>5.6582298372379389</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>7.2269496506958282</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="5">
         <v>7.3557575675559272</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="5">
         <v>6.7490736544095347</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="5">
         <v>7.6367622547709155</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="15">
         <v>7.1541088036884304</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="15">
         <v>6.133536097524007</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="15">
         <v>7.1224347303517659</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="30" customHeight="1">
-      <c r="A9" s="11" t="s">
+      <c r="M8" s="19">
+        <v>7.5393064036579123</v>
+      </c>
+      <c r="N8" s="19">
+        <v>9.3265934807751982</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="30" customHeight="1">
+      <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>3.5365168410558003</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>4.3211746321069411</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>4.0573775059925081</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>5.5760785790686533</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <v>6.4824518806572762</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="5">
         <v>6.384788304372794</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="5">
         <v>7.5340331914699368</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="5">
         <v>5.2653098761286428</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="15">
         <v>5.8265078539862305</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="15">
         <v>6.5019478910116186</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="15">
         <v>7.6743859310587643</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1">
-      <c r="A10" s="10" t="s">
+      <c r="M9" s="19">
+        <v>8.016765560688274</v>
+      </c>
+      <c r="N9" s="19">
+        <v>8.6478002727993015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1">
+      <c r="A10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>3.3013118097368555</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>3.5921035530219219</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>4.3190600358804643</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>4.362855783991777</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="5">
         <v>5.6897652485859984</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="5">
         <v>5.0917806358869369</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="5">
         <v>5.3191272217761654</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="5">
         <v>4.2553506353862378</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="15">
         <v>5.0217760731773309</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="15">
         <v>5.0569192807782342</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="15">
         <v>4.9005639407884045</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1">
-      <c r="A11" s="10" t="s">
+      <c r="M10" s="19">
+        <v>7.9533185209378496</v>
+      </c>
+      <c r="N10" s="19">
+        <v>7.634717820588059</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1">
+      <c r="A11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>0.71678384198392686</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <v>1.0600171334010693</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <v>1.2977700435126833</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>0.90462509992972684</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="5">
         <v>1.4035941551460245</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="5">
         <v>1.2351055256270456</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="5">
         <v>0.96548188865534434</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="5">
         <v>0.90140197717030834</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="15">
         <v>0.81897343586222338</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="15">
         <v>0.72954803164672866</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="15">
         <v>0.5720188793690999</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1">
-      <c r="A12" s="10" t="s">
+      <c r="M11" s="19">
+        <v>1.2697184948310851</v>
+      </c>
+      <c r="N11" s="19">
+        <v>1.2046981836509703</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1">
+      <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <v>6.4204067089921253</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <v>5.5788386513524895</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <v>7.1938448209379402</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>10.292828235505274</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="5">
         <v>9.6979065788541945</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="5">
         <v>8.9748989500623058</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="5">
         <v>8.4366526603126477</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="5">
         <v>6.133890199406685</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="15">
         <v>6.9538713044922194</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="15">
         <v>6.2654795229609954</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="15">
         <v>6.6109813231532319</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1">
-      <c r="A13" s="9" t="s">
+      <c r="M12" s="19">
+        <v>8.1391128471726084</v>
+      </c>
+      <c r="N12" s="19">
+        <v>9.9981012061165941</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1">
+      <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <v>13.950897777215832</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <v>14.058820542454951</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>12.677426909917072</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="4">
         <v>12.110677931095758</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="4">
         <v>11.987450058981343</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="4">
         <v>12.374219074334173</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="4">
         <v>11.24470520786385</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="4">
         <v>10.693937876283929</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="14">
         <v>10.597399995079819</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="14">
         <v>10.89512580714065</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13" s="14">
         <v>12.907865318947376</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1">
-      <c r="A14" s="9" t="s">
+      <c r="M13" s="18">
+        <v>15.072818326955636</v>
+      </c>
+      <c r="N13" s="18">
+        <v>16.445945378099069</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1">
+      <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="4">
         <v>13.650686013659925</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <v>14.364364630677086</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <v>17.120131559686946</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="4">
         <v>25.186451279197176</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="4">
         <v>30.001466485052866</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="4">
         <v>32.326799916538292</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="4">
         <v>25.888965694798802</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="4">
         <v>22.971950457628886</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="14">
         <v>24.840016325632728</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="14">
         <v>24.09090984620412</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="14">
         <v>22.716713947664896</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1">
-      <c r="A15" s="10" t="s">
+      <c r="M14" s="18">
+        <v>26.76057079426003</v>
+      </c>
+      <c r="N14" s="18">
+        <v>30.717895297223407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1">
+      <c r="A15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <v>1.6803993460462601</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="5">
         <v>1.6517844192452036</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <v>2.1545209384065265</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <v>1.7945301880155584</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="5">
         <v>2.3344381483035259</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="5">
         <v>3.1248326514023219</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="5">
         <v>2.4670905559374501</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="5">
         <v>2.8143675758819575</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="15">
         <v>2.7031890439885449</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="15">
         <v>3.5815728874448141</v>
       </c>
-      <c r="L15" s="21">
+      <c r="L15" s="15">
         <v>3.2714818919588722</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1">
-      <c r="A16" s="10" t="s">
+      <c r="M15" s="19">
+        <v>4.2241668120740261</v>
+      </c>
+      <c r="N15" s="19">
+        <v>5.9203571448046368</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1">
+      <c r="A16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="5">
         <v>3.3652302881919627</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="5">
         <v>3.7234721816295506</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <v>3.2543569986920162</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <v>3.8085789818848665</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="5">
         <v>6.1128225016878304</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="5">
         <v>5.5022834705671331</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="5">
         <v>5.3766685332209265</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="5">
         <v>4.5162330497741712</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="15">
         <v>4.6162640812861122</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="15">
         <v>3.6167634269383755</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="15">
         <v>2.9777435687573752</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
-      <c r="A17" s="10" t="s">
+      <c r="M16" s="19">
+        <v>4.5783068334725696</v>
+      </c>
+      <c r="N16" s="19">
+        <v>4.8372603284428921</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1">
+      <c r="A17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="5">
         <v>6.2505438083256148</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="5">
         <v>6.3298076672850945</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="5">
         <v>7.9637536461487306</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>14.802957208858452</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="5">
         <v>16.836644546667586</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="5">
         <v>19.964817724771223</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="5">
         <v>15.733574527042386</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="5">
         <v>11.909968722848259</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="15">
         <v>14.901987160526275</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="15">
         <v>13.261250144564313</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L17" s="15">
         <v>15.186197517648059</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1">
-      <c r="A18" s="10" t="s">
+      <c r="M17" s="19">
+        <v>16.848281427790322</v>
+      </c>
+      <c r="N17" s="19">
+        <v>18.461050804457347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1">
+      <c r="A18" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="5">
         <v>2.3545125710961101</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="5">
         <v>2.6593003625172478</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="5">
         <v>3.7474999764396886</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="5">
         <v>4.7803849004382855</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="5">
         <v>4.7175612883939486</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="5">
         <v>3.7348660697976706</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="5">
         <v>2.3116320785980218</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="5">
         <v>3.7313811091245013</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="15">
         <v>2.6185760398317979</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="15">
         <v>3.6313233872566228</v>
       </c>
-      <c r="L18" s="21">
+      <c r="L18" s="15">
         <v>1.2812909693005883</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1">
-      <c r="A19" s="9" t="s">
+      <c r="M18" s="19">
+        <v>1.1098157209231057</v>
+      </c>
+      <c r="N18" s="19">
+        <v>1.4992270195185344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1">
+      <c r="A19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="4">
         <v>53.440829665818356</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="4">
         <v>55.096221999248755</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="4">
         <v>61.518793628339218</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="4">
         <v>77.863121307728221</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="4">
         <v>87.305430967958301</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="4">
         <v>89.002182743379379</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="4">
         <v>84.622643397260944</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="4">
         <v>74.46135058067695</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="14">
         <v>81.485591786280963</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K19" s="14">
         <v>81.041119809430526</v>
       </c>
-      <c r="L19" s="20">
+      <c r="L19" s="14">
         <v>87.772890201047474</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1">
-      <c r="A20" s="12" t="s">
+      <c r="M19" s="18">
+        <v>104.66120642866456</v>
+      </c>
+      <c r="N19" s="18">
+        <v>115.96437584302423</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1">
+      <c r="A20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="6">
         <v>67.391727443034242</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="6">
         <v>69.155042541703764</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="6">
         <v>74.19622053825627</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="6">
         <v>89.973799238823943</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="6">
         <v>99.292881026939611</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="6">
         <v>101.37640181771354</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="6">
         <v>95.867348605124917</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="6">
         <v>85.155288456960861</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="16">
         <v>92.082991781360803</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K20" s="16">
         <v>91.936245616571142</v>
       </c>
-      <c r="L20" s="22">
+      <c r="L20" s="16">
         <v>100.68075551999489</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" ht="30" customHeight="1">
-      <c r="A23" s="28" t="s">
+      <c r="M20" s="20">
+        <v>119.73402475562018</v>
+      </c>
+      <c r="N20" s="20">
+        <v>132.4103212211233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="30" customHeight="1">
+      <c r="A23" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2">
         <v>2011</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="2">
         <v>2012</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="2">
         <v>2013</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="2">
         <v>2014</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="2">
         <v>2015</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="2">
         <v>2016</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="2">
         <v>2017</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="2">
         <v>2018</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="3">
         <v>2019</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="3">
         <v>2020</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="3">
         <v>2021</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1">
-      <c r="A25" s="9" t="s">
+      <c r="M24" s="3">
+        <v>2022</v>
+      </c>
+      <c r="N24" s="3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1">
+      <c r="A25" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="4">
         <v>557.57220120942645</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="4">
         <v>570.38697696758618</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="4">
         <v>601.93016750107643</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="4">
         <v>692.84086247636367</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="4">
         <v>752.65082590697648</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="4">
         <v>757.58587668892585</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="4">
         <v>709.74445742005264</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="4">
         <v>668.04902236998419</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J25" s="13">
         <v>724.1559404553617</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K25" s="13">
         <v>719.05708319357416</v>
       </c>
-      <c r="L25" s="19">
+      <c r="L25" s="13">
         <v>838.32721382941872</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1">
-      <c r="A26" s="9" t="s">
+      <c r="M25" s="17">
+        <v>1004.7343756314762</v>
+      </c>
+      <c r="N25" s="17">
+        <v>1103.2696452419218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1">
+      <c r="A26" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="4">
         <v>412.82932731643535</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="4">
         <v>424.03054454741192</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="4">
         <v>468.23274989710791</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="4">
         <v>563.32834487520006</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="4">
         <v>622.44184912303456</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="4">
         <v>621.82066809022649</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="4">
         <v>595.69684922037811</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="4">
         <v>553.16173948379424</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J26" s="14">
         <v>610.02996509796162</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K26" s="14">
         <v>603.5853666053373</v>
       </c>
-      <c r="L26" s="20">
+      <c r="L26" s="14">
         <v>699.53227001830942</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1">
-      <c r="A27" s="10" t="s">
+      <c r="M26" s="18">
+        <v>841.84724962414953</v>
+      </c>
+      <c r="N26" s="18">
+        <v>924.84620654314006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1">
+      <c r="A27" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="5">
         <v>180.79194848967779</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="5">
         <v>182.7176422878261</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="5">
         <v>196.59385489128584</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="5">
         <v>216.27352488534618</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="5">
         <v>229.19220148640682</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="5">
         <v>248.76487048716766</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="5">
         <v>243.53650980336641</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="5">
         <v>243.86265904148738</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J27" s="15">
         <v>282.86989266560192</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K27" s="15">
         <v>289.07238924020783</v>
       </c>
-      <c r="L27" s="21">
+      <c r="L27" s="15">
         <v>355.00883722648064</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1">
-      <c r="A28" s="10" t="s">
+      <c r="M27" s="19">
+        <v>418.89403005402966</v>
+      </c>
+      <c r="N27" s="19">
+        <v>430.15030640586969</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1">
+      <c r="A28" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="5">
         <v>21.399144171964366</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="5">
         <v>21.458778109405632</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="5">
         <v>23.73658841658041</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="5">
         <v>25.801367663184788</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="5">
         <v>29.707645859657799</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="5">
         <v>29.853230392699409</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="5">
         <v>31.792187027761013</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="5">
         <v>27.998299152279699</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J28" s="15">
         <v>30.016296125016215</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K28" s="15">
         <v>28.903523269285401</v>
       </c>
-      <c r="L28" s="21">
+      <c r="L28" s="15">
         <v>31.14731395085813</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1">
-      <c r="A29" s="10" t="s">
+      <c r="M28" s="19">
+        <v>38.029633035163094</v>
+      </c>
+      <c r="N28" s="19">
+        <v>43.599340771984394</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1">
+      <c r="A29" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="5">
         <v>17.214015356140067</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="5">
         <v>16.375442644398525</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="5">
         <v>22.91199220720527</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="5">
         <v>34.709759648424829</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="5">
         <v>32.240458189584672</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="5">
         <v>24.56119675440349</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="5">
         <v>26.196023647773607</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="5">
         <v>21.393222673138226</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J29" s="15">
         <v>19.563981467497502</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K29" s="15">
         <v>23.960340000876027</v>
       </c>
-      <c r="L29" s="21">
+      <c r="L29" s="15">
         <v>24.338279786686538</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1">
-      <c r="A30" s="10" t="s">
+      <c r="M29" s="19">
+        <v>29.186893475409164</v>
+      </c>
+      <c r="N29" s="19">
+        <v>51.721054445726409</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1">
+      <c r="A30" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="5">
         <v>48.431081632826363</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="5">
         <v>51.986712069168767</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="5">
         <v>47.098139356384756</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="5">
         <v>60.509543359675583</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="5">
         <v>78.499907374473437</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="5">
         <v>80.704564430417363</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="5">
         <v>68.451390554068325</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="5">
         <v>82.043385294409759</v>
       </c>
-      <c r="J30" s="17">
+      <c r="J30" s="15">
         <v>77.044335913806805</v>
       </c>
-      <c r="K30" s="17">
+      <c r="K30" s="15">
         <v>65.006127921242211</v>
       </c>
-      <c r="L30" s="21">
+      <c r="L30" s="15">
         <v>76.585702110353566</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="30" customHeight="1">
-      <c r="A31" s="11" t="s">
+      <c r="M30" s="19">
+        <v>81.47487255148981</v>
+      </c>
+      <c r="N30" s="19">
+        <v>101.18499374329669</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="30" customHeight="1">
+      <c r="A31" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="5">
         <v>36.691947666721077</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="5">
         <v>44.984691362259454</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="5">
         <v>42.789510730389743</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="5">
         <v>59.631011511157944</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="5">
         <v>70.413092215480134</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="5">
         <v>70.051460281614496</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="5">
         <v>76.412716002836632</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="5">
         <v>56.566360513817202</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J31" s="15">
         <v>62.747078724258436</v>
       </c>
-      <c r="K31" s="17">
+      <c r="K31" s="15">
         <v>68.910731039958307</v>
       </c>
-      <c r="L31" s="21">
+      <c r="L31" s="15">
         <v>82.520690893986867</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1">
-      <c r="A32" s="10" t="s">
+      <c r="M31" s="19">
+        <v>86.634620926846523</v>
+      </c>
+      <c r="N31" s="19">
+        <v>93.820709383352181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1">
+      <c r="A32" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="5">
         <v>34.251656530562435</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="5">
         <v>37.394848260316202</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="5">
         <v>45.549240975864443</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="5">
         <v>46.656713994907378</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="5">
         <v>61.802844434303552</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="5">
         <v>55.865073667867904</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="5">
         <v>53.948389587760602</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="5">
         <v>45.716150391312304</v>
       </c>
-      <c r="J32" s="17">
+      <c r="J32" s="15">
         <v>54.080726654075853</v>
       </c>
-      <c r="K32" s="17">
+      <c r="K32" s="15">
         <v>53.595631692192775</v>
       </c>
-      <c r="L32" s="21">
+      <c r="L32" s="15">
         <v>52.694499051369334</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1">
-      <c r="A33" s="10" t="s">
+      <c r="M32" s="19">
+        <v>85.94896906437188</v>
+      </c>
+      <c r="N32" s="19">
+        <v>82.829693017115318</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1">
+      <c r="A33" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="5">
         <v>7.4367510181497645</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="5">
         <v>11.035088290681701</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="5">
         <v>13.686413236246414</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="5">
         <v>9.6741301224994416</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="5">
         <v>15.245991254374745</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="5">
         <v>13.551106402824569</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="5">
         <v>9.7922442719301568</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="5">
         <v>9.6839560079174944</v>
       </c>
-      <c r="J33" s="17">
+      <c r="J33" s="15">
         <v>8.8197239136931564</v>
       </c>
-      <c r="K33" s="17">
+      <c r="K33" s="15">
         <v>7.7320964474411946</v>
       </c>
-      <c r="L33" s="21">
+      <c r="L33" s="15">
         <v>6.150771352129544</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1">
-      <c r="A34" s="10" t="s">
+      <c r="M33" s="19">
+        <v>13.721441602697075</v>
+      </c>
+      <c r="N33" s="19">
+        <v>13.069871483789877</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15" customHeight="1">
+      <c r="A34" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="5">
         <v>66.612782450393809</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="5">
         <v>58.077341523355649</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="5">
         <v>75.867010083150745</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="5">
         <v>110.07229369000427</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="5">
         <v>105.33970830875408</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="5">
         <v>98.46916567323116</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="5">
         <v>85.56738832488044</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="5">
         <v>65.897706409432104</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J34" s="15">
         <v>74.887929634011357</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K34" s="15">
         <v>66.404526994133661</v>
       </c>
-      <c r="L34" s="21">
+      <c r="L34" s="15">
         <v>71.086175646444815</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1">
-      <c r="A35" s="9" t="s">
+      <c r="M34" s="19">
+        <v>87.956788914142464</v>
+      </c>
+      <c r="N34" s="19">
+        <v>108.47023729200522</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15" customHeight="1">
+      <c r="A35" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="4">
         <v>144.74287389299104</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="4">
         <v>146.3564324201738</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="4">
         <v>133.6974176039684</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="4">
         <v>129.51251760116313</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="4">
         <v>130.20897678394073</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="4">
         <v>135.7652085987007</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="4">
         <v>114.04760819967606</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="4">
         <v>114.88728288618999</v>
       </c>
-      <c r="J35" s="16">
+      <c r="J35" s="14">
         <v>114.12597535739999</v>
       </c>
-      <c r="K35" s="16">
+      <c r="K35" s="14">
         <v>115.47171658823684</v>
       </c>
-      <c r="L35" s="20">
+      <c r="L35" s="14">
         <v>138.79494381110942</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1">
-      <c r="A36" s="9" t="s">
+      <c r="M35" s="18">
+        <v>162.8871260073266</v>
+      </c>
+      <c r="N35" s="18">
+        <v>178.42343869878204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15" customHeight="1">
+      <c r="A36" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="4">
         <v>141.6281271485534</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="4">
         <v>149.53723571474791</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="4">
         <v>180.55062709766531</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="4">
         <v>269.34583952830161</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="4">
         <v>325.87916811462264</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="4">
         <v>354.67730994842077</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="4">
         <v>262.57465728762907</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="4">
         <v>246.79262225060265</v>
       </c>
-      <c r="J36" s="16">
+      <c r="J36" s="14">
         <v>267.50817109600126</v>
       </c>
-      <c r="K36" s="16">
+      <c r="K36" s="14">
         <v>255.32690152971404</v>
       </c>
-      <c r="L36" s="20">
+      <c r="L36" s="14">
         <v>244.26696111486206</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1">
-      <c r="A37" s="10" t="s">
+      <c r="M36" s="18">
+        <v>289.19292811996786</v>
+      </c>
+      <c r="N36" s="18">
+        <v>333.26101859844874</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15" customHeight="1">
+      <c r="A37" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="5">
         <v>17.434421391279006</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="5">
         <v>17.195558759564509</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="5">
         <v>22.721794232021768</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="5">
         <v>19.190843310631667</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="5">
         <v>25.356919208039592</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="5">
         <v>34.284471141585534</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="5">
         <v>25.022067890219613</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="5">
         <v>30.235358347567658</v>
       </c>
-      <c r="J37" s="17">
+      <c r="J37" s="15">
         <v>29.111299598379141</v>
       </c>
-      <c r="K37" s="17">
+      <c r="K37" s="15">
         <v>37.959210083474879</v>
       </c>
-      <c r="L37" s="21">
+      <c r="L37" s="15">
         <v>35.177400302354734</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1">
-      <c r="A38" s="10" t="s">
+      <c r="M37" s="19">
+        <v>45.649219467056469</v>
+      </c>
+      <c r="N37" s="19">
+        <v>64.230450473686545</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15" customHeight="1">
+      <c r="A38" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="5">
         <v>34.914821325703372</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="5">
         <v>38.76243409419768</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="5">
         <v>34.320775799240629</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="5">
         <v>40.729235409710405</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="5">
         <v>66.398137993515704</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="5">
         <v>60.368954086173304</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="5">
         <v>54.531993054604563</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="5">
         <v>48.518866480423711</v>
       </c>
-      <c r="J38" s="17">
+      <c r="J38" s="15">
         <v>49.713669487677116</v>
       </c>
-      <c r="K38" s="17">
+      <c r="K38" s="15">
         <v>38.332176130395091</v>
       </c>
-      <c r="L38" s="21">
+      <c r="L38" s="15">
         <v>32.018907936922616</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1">
-      <c r="A39" s="10" t="s">
+      <c r="M38" s="19">
+        <v>49.476297392265757</v>
+      </c>
+      <c r="N38" s="19">
+        <v>52.47984240731688</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15" customHeight="1">
+      <c r="A39" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="5">
         <v>64.850426736597072</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="5">
         <v>65.895148550487121</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="5">
         <v>83.986545889006265</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="5">
         <v>158.3039584546265</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="5">
         <v>182.88145085984996</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="5">
         <v>219.04635975458106</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="5">
         <v>159.57524097525098</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="5">
         <v>127.95136475049537</v>
       </c>
-      <c r="J39" s="17">
+      <c r="J39" s="15">
         <v>160.48312041143274</v>
       </c>
-      <c r="K39" s="17">
+      <c r="K39" s="15">
         <v>140.54902581255502</v>
       </c>
-      <c r="L39" s="21">
+      <c r="L39" s="15">
         <v>163.29326182791766</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1">
-      <c r="A40" s="10" t="s">
+      <c r="M39" s="19">
+        <v>182.07398778418641</v>
+      </c>
+      <c r="N39" s="19">
+        <v>200.28548622754366</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15" customHeight="1">
+      <c r="A40" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="5">
         <v>24.428457694974185</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="5">
         <v>27.684094310498701</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="5">
         <v>39.521511177396818</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="5">
         <v>51.121802353332896</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="5">
         <v>51.242660053217669</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="5">
         <v>40.977524966081475</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="5">
         <v>23.44535536755372</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="5">
         <v>40.087032672115946</v>
       </c>
-      <c r="J40" s="17">
+      <c r="J40" s="15">
         <v>28.200081598512</v>
       </c>
-      <c r="K40" s="17">
+      <c r="K40" s="15">
         <v>38.486489503289121</v>
       </c>
-      <c r="L40" s="21">
+      <c r="L40" s="15">
         <v>13.777391047667011</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1">
-      <c r="A41" s="9" t="s">
+      <c r="M40" s="19">
+        <v>11.993423476459178</v>
+      </c>
+      <c r="N40" s="19">
+        <v>16.265239489901674</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15" customHeight="1">
+      <c r="A41" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="4">
         <v>554.45745446498881</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="4">
         <v>573.56778026216023</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="4">
         <v>648.7833769947739</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="4">
         <v>832.67418440350195</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="4">
         <v>948.32101723765891</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="4">
         <v>976.49797803864726</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="4">
         <v>858.27150650800547</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="4">
         <v>799.95436173439668</v>
       </c>
-      <c r="J41" s="16">
+      <c r="J41" s="14">
         <v>877.53813619396124</v>
       </c>
-      <c r="K41" s="16">
+      <c r="K41" s="14">
         <v>858.91226813505148</v>
       </c>
-      <c r="L41" s="20">
+      <c r="L41" s="14">
         <v>943.79923113317147</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1">
-      <c r="A42" s="12" t="s">
+      <c r="M41" s="18">
+        <v>1131.0401777441177</v>
+      </c>
+      <c r="N41" s="18">
+        <v>1258.1072251415885</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15" customHeight="1">
+      <c r="A42" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="6">
         <v>699.20032835798042</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="6">
         <v>719.92421268233454</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="6">
         <v>782.48079459874214</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="6">
         <v>962.18670200466477</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="6">
         <v>1078.5299940215994</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="6">
         <v>1112.2631866373479</v>
       </c>
-      <c r="H42" s="8">
+      <c r="H42" s="6">
         <v>972.31911470768273</v>
       </c>
-      <c r="I42" s="8">
+      <c r="I42" s="6">
         <v>914.84164462058652</v>
       </c>
-      <c r="J42" s="18">
+      <c r="J42" s="16">
         <v>991.66411155136177</v>
       </c>
-      <c r="K42" s="18">
+      <c r="K42" s="16">
         <v>974.38398472328799</v>
       </c>
-      <c r="L42" s="22">
+      <c r="L42" s="16">
         <v>1082.5941749442811</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-    </row>
-    <row r="45" spans="1:12" ht="30" customHeight="1">
-      <c r="A45" s="28" t="s">
+      <c r="M42" s="20">
+        <v>1293.9273037514442</v>
+      </c>
+      <c r="N42" s="20">
+        <v>1436.5306638403706</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="30" customHeight="1">
+      <c r="A45" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
-    </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4">
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+    </row>
+    <row r="46" spans="1:14" ht="15" customHeight="1">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2">
         <v>2011</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="2">
         <v>2012</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="2">
         <v>2013</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="2">
         <v>2014</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="2">
         <v>2015</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="2">
         <v>2016</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="2">
         <v>2017</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I46" s="2">
         <v>2018</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J46" s="3">
         <v>2019</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K46" s="3">
         <v>2020</v>
       </c>
-      <c r="L46" s="5">
+      <c r="L46" s="3">
         <v>2021</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1">
-      <c r="A47" s="13" t="s">
+      <c r="M46" s="3">
+        <v>2022</v>
+      </c>
+      <c r="N46" s="3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15" customHeight="1">
+      <c r="A47" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="4">
         <v>150.68032341913286</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="4">
         <v>157.81816113736758</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="4">
         <v>167.96372399612011</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="4">
         <v>193.34139465648971</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="4">
         <v>208.80656493810886</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="4">
         <v>210.27923263983504</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47" s="4">
         <v>215.99089260888636</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I47" s="4">
         <v>193.83531272730167</v>
       </c>
-      <c r="J47" s="15">
+      <c r="J47" s="13">
         <v>212.6629927266593</v>
       </c>
-      <c r="K47" s="15">
+      <c r="K47" s="13">
         <v>218.0729699903859</v>
       </c>
-      <c r="L47" s="23">
+      <c r="L47" s="13">
         <v>252.83612201915005</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1">
-      <c r="A48" s="13" t="s">
+      <c r="M47" s="17">
+        <v>308.66348393749342</v>
+      </c>
+      <c r="N47" s="17">
+        <v>346.43110740012781</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15" customHeight="1">
+      <c r="A48" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="4">
         <v>111.56448693463287</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="4">
         <v>117.32336730814259</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="4">
         <v>130.65654558594875</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="4">
         <v>157.20015049115094</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="4">
         <v>172.68292269856494</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="4">
         <v>172.59557886305794</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48" s="4">
         <v>181.28368998486161</v>
       </c>
-      <c r="I48" s="6">
+      <c r="I48" s="4">
         <v>160.50061473218761</v>
       </c>
-      <c r="J48" s="16">
+      <c r="J48" s="14">
         <v>179.14759899517651</v>
       </c>
-      <c r="K48" s="16">
+      <c r="K48" s="14">
         <v>183.05313530014618</v>
       </c>
-      <c r="L48" s="24">
+      <c r="L48" s="14">
         <v>210.97612419232621</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="15" customHeight="1">
-      <c r="A49" s="10" t="s">
+      <c r="M48" s="18">
+        <v>258.62308617526145</v>
+      </c>
+      <c r="N48" s="18">
+        <v>290.40542979616907</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15" customHeight="1">
+      <c r="A49" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="5">
         <v>48.857868471401304</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="5">
         <v>50.555436006840537</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="5">
         <v>54.85791835185627</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="5">
         <v>60.352423180055105</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="5">
         <v>63.58438024074443</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="5">
         <v>69.048391322200871</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="5">
         <v>74.113531406065377</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="5">
         <v>70.757074997467839</v>
       </c>
-      <c r="J49" s="17">
+      <c r="J49" s="15">
         <v>83.070447352415144</v>
       </c>
-      <c r="K49" s="17">
+      <c r="K49" s="15">
         <v>87.668803961783055</v>
       </c>
-      <c r="L49" s="25">
+      <c r="L49" s="15">
         <v>107.06924003678476</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1">
-      <c r="A50" s="10" t="s">
+      <c r="M49" s="19">
+        <v>128.6880332285142</v>
+      </c>
+      <c r="N49" s="19">
+        <v>135.06892683883601</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15" customHeight="1">
+      <c r="A50" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="5">
         <v>5.7829819308246568</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="5">
         <v>5.9373461145373359</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="5">
         <v>6.623502194554626</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="5">
         <v>7.200026266082399</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="5">
         <v>8.2417387596405192</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="5">
         <v>8.2862082992271233</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="5">
         <v>9.6750637251552671</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="5">
         <v>8.1237437527586529</v>
       </c>
-      <c r="J50" s="17">
+      <c r="J50" s="15">
         <v>8.8148905614191477</v>
       </c>
-      <c r="K50" s="17">
+      <c r="K50" s="15">
         <v>8.7657535261668134</v>
       </c>
-      <c r="L50" s="25">
+      <c r="L50" s="15">
         <v>9.3939048389885205</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1">
-      <c r="A51" s="10" t="s">
+      <c r="M50" s="19">
+        <v>11.683047092043873</v>
+      </c>
+      <c r="N50" s="19">
+        <v>13.690368416002325</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15" customHeight="1">
+      <c r="A51" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="5">
         <v>4.6519776193628015</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="5">
         <v>4.5308577339700902</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="5">
         <v>6.3934053202033576</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="5">
         <v>9.6859664348203012</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="5">
         <v>8.9444123288983626</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="5">
         <v>6.8173256196441301</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51" s="5">
         <v>7.972027778918525</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51" s="5">
         <v>6.2072720238125845</v>
       </c>
-      <c r="J51" s="17">
+      <c r="J51" s="15">
         <v>5.7453576171876772</v>
       </c>
-      <c r="K51" s="17">
+      <c r="K51" s="15">
         <v>7.2666032059152306</v>
       </c>
-      <c r="L51" s="25">
+      <c r="L51" s="15">
         <v>7.3403274716249545</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1">
-      <c r="A52" s="10" t="s">
+      <c r="M51" s="19">
+        <v>8.9664775526070475</v>
+      </c>
+      <c r="N51" s="19">
+        <v>16.240619185717144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15" customHeight="1">
+      <c r="A52" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="5">
         <v>13.088190243601634</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="5">
         <v>14.384001798134058</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="5">
         <v>13.14235322749871</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="5">
         <v>16.885550689623368</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="5">
         <v>21.778088115523296</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G52" s="5">
         <v>22.400752708235327</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="5">
         <v>20.831267918366397</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I52" s="5">
         <v>23.804997407721594</v>
       </c>
-      <c r="J52" s="17">
+      <c r="J52" s="15">
         <v>22.625622649405251</v>
       </c>
-      <c r="K52" s="17">
+      <c r="K52" s="15">
         <v>19.714817800555565</v>
       </c>
-      <c r="L52" s="25">
+      <c r="L52" s="15">
         <v>23.097940284252424</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="30" customHeight="1">
-      <c r="A53" s="11" t="s">
+      <c r="M52" s="19">
+        <v>25.029817457276074</v>
+      </c>
+      <c r="N52" s="19">
+        <v>31.772495133842661</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="30" customHeight="1">
+      <c r="A53" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="5">
         <v>9.9157643248839182</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="5">
         <v>12.446639837163136</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="5">
         <v>11.940065406732332</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="5">
         <v>16.640391112523023</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="5">
         <v>19.534577530646164</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G53" s="5">
         <v>19.443825137947037</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H53" s="5">
         <v>23.254074848455041</v>
       </c>
-      <c r="I53" s="7">
+      <c r="I53" s="5">
         <v>16.412804768642516</v>
       </c>
-      <c r="J53" s="17">
+      <c r="J53" s="15">
         <v>18.426944806894998</v>
       </c>
-      <c r="K53" s="17">
+      <c r="K53" s="15">
         <v>20.898991378194761</v>
       </c>
-      <c r="L53" s="25">
+      <c r="L53" s="15">
         <v>24.887909073916855</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1">
-      <c r="A54" s="10" t="s">
+      <c r="M53" s="19">
+        <v>26.61493880716267</v>
+      </c>
+      <c r="N53" s="19">
+        <v>29.460080216032068</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15" customHeight="1">
+      <c r="A54" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="5">
         <v>9.2562912434863129</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="5">
         <v>10.346635576831142</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="5">
         <v>12.710145715514711</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="5">
         <v>13.019835639633762</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="5">
         <v>17.14585197482559</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G54" s="5">
         <v>15.506182445730428</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H54" s="5">
         <v>16.417684844245382</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I54" s="5">
         <v>13.264601864622872</v>
       </c>
-      <c r="J54" s="17">
+      <c r="J54" s="15">
         <v>15.881895785949329</v>
       </c>
-      <c r="K54" s="17">
+      <c r="K54" s="15">
         <v>16.25428474985333</v>
       </c>
-      <c r="L54" s="25">
+      <c r="L54" s="15">
         <v>15.892449358802462</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="15" customHeight="1">
-      <c r="A55" s="10" t="s">
+      <c r="M54" s="19">
+        <v>26.404300356072902</v>
+      </c>
+      <c r="N54" s="19">
+        <v>26.008856856783893</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15" customHeight="1">
+      <c r="A55" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="5">
         <v>2.0097344275265989</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="5">
         <v>3.05325579360633</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="5">
         <v>3.8190824441535014</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="5">
         <v>2.6996239847735723</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="5">
         <v>4.2296679327578373</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G55" s="5">
         <v>3.7613112169681489</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H55" s="5">
         <v>2.9799959109602367</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I55" s="5">
         <v>2.8098127208882193</v>
       </c>
-      <c r="J55" s="17">
+      <c r="J55" s="15">
         <v>2.5900897551561108</v>
       </c>
-      <c r="K55" s="17">
+      <c r="K55" s="15">
         <v>2.3449615836573146</v>
       </c>
-      <c r="L55" s="25">
+      <c r="L55" s="15">
         <v>1.8550479460104392</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="15" customHeight="1">
-      <c r="A56" s="10" t="s">
+      <c r="M55" s="19">
+        <v>4.2153509150828539</v>
+      </c>
+      <c r="N55" s="19">
+        <v>4.1039922300353266</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15" customHeight="1">
+      <c r="A56" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="5">
         <v>18.001678673545722</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="5">
         <v>16.069194447059992</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="5">
         <v>21.170072925435164</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="5">
         <v>30.71633318363952</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="5">
         <v>29.224205815528919</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G56" s="5">
         <v>27.331582113104762</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H56" s="5">
         <v>26.040043552695103</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56" s="5">
         <v>19.120307196273355</v>
       </c>
-      <c r="J56" s="17">
+      <c r="J56" s="15">
         <v>21.992350466748718</v>
       </c>
-      <c r="K56" s="17">
+      <c r="K56" s="15">
         <v>20.13891909402011</v>
       </c>
-      <c r="L56" s="25">
+      <c r="L56" s="15">
         <v>21.439305181945805</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" ht="15" customHeight="1">
-      <c r="A57" s="13" t="s">
+      <c r="M56" s="19">
+        <v>27.021120766501813</v>
+      </c>
+      <c r="N56" s="19">
+        <v>34.060090918919585</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15" customHeight="1">
+      <c r="A57" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="4">
         <v>39.115836484499987</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="4">
         <v>40.494793829224875</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="4">
         <v>37.307178410171311</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="4">
         <v>36.141244165338613</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57" s="4">
         <v>36.123642239543592</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G57" s="4">
         <v>37.683653776777476</v>
       </c>
-      <c r="H57" s="6">
+      <c r="H57" s="4">
         <v>34.707202624025179</v>
       </c>
-      <c r="I57" s="6">
+      <c r="I57" s="4">
         <v>33.334697995114055</v>
       </c>
-      <c r="J57" s="16">
+      <c r="J57" s="14">
         <v>33.515393731482789</v>
       </c>
-      <c r="K57" s="16">
+      <c r="K57" s="14">
         <v>35.019834690239726</v>
       </c>
-      <c r="L57" s="24">
+      <c r="L57" s="14">
         <v>41.859997826823815</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="15" customHeight="1">
-      <c r="A58" s="13" t="s">
+      <c r="M57" s="18">
+        <v>50.040397762232026</v>
+      </c>
+      <c r="N57" s="18">
+        <v>56.025677603958783</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15" customHeight="1">
+      <c r="A58" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="4">
         <v>38.274096086032252</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="4">
         <v>41.374877960104129</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="4">
         <v>50.38118594895716</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="4">
         <v>75.162570627250602</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58" s="4">
         <v>90.408071494381005</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58" s="4">
         <v>98.44596482800965</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H58" s="4">
         <v>79.9072595933809</v>
       </c>
-      <c r="I58" s="6">
+      <c r="I58" s="4">
         <v>71.607207721116723</v>
       </c>
-      <c r="J58" s="16">
+      <c r="J58" s="14">
         <v>78.559168082413308</v>
       </c>
-      <c r="K58" s="16">
+      <c r="K58" s="14">
         <v>77.434597386530726</v>
       </c>
-      <c r="L58" s="24">
+      <c r="L58" s="14">
         <v>73.669934802153449</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="15" customHeight="1">
-      <c r="A59" s="10" t="s">
+      <c r="M58" s="18">
+        <v>88.842682094451447</v>
+      </c>
+      <c r="N58" s="18">
+        <v>104.64530065180865</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15" customHeight="1">
+      <c r="A59" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="5">
         <v>4.7115409415410356</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="5">
         <v>4.7577724820990115</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="5">
         <v>6.340332120132711</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="5">
         <v>5.3553198306606413</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="5">
         <v>7.0347244897573447</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G59" s="5">
         <v>9.5161651041118986</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H59" s="5">
         <v>7.6147671489741331</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I59" s="5">
         <v>8.7728294548375274</v>
       </c>
-      <c r="J59" s="17">
+      <c r="J59" s="15">
         <v>8.5491200843574671</v>
       </c>
-      <c r="K59" s="17">
+      <c r="K59" s="15">
         <v>11.512128695857545</v>
       </c>
-      <c r="L59" s="25">
+      <c r="L59" s="15">
         <v>10.609362702822152</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="15" customHeight="1">
-      <c r="A60" s="10" t="s">
+      <c r="M59" s="19">
+        <v>14.023852932147532</v>
+      </c>
+      <c r="N59" s="19">
+        <v>20.168619867656254</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15" customHeight="1">
+      <c r="A60" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="5">
         <v>9.4355072904758686</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="5">
         <v>10.725027598767074</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="5">
         <v>9.5769337124410896</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="5">
         <v>11.365737218876202</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="5">
         <v>18.420716002012476</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G60" s="5">
         <v>16.756301471710792</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H60" s="5">
         <v>16.595288251239889</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I60" s="5">
         <v>14.077813667091268</v>
       </c>
-      <c r="J60" s="17">
+      <c r="J60" s="15">
         <v>14.599421398138922</v>
       </c>
-      <c r="K60" s="17">
+      <c r="K60" s="15">
         <v>11.625240457716886</v>
       </c>
-      <c r="L60" s="25">
+      <c r="L60" s="15">
         <v>9.6567740859560853</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="15" customHeight="1">
-      <c r="A61" s="10" t="s">
+      <c r="M60" s="19">
+        <v>15.199565871154856</v>
+      </c>
+      <c r="N60" s="19">
+        <v>16.478881658494625</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="15" customHeight="1">
+      <c r="A61" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="5">
         <v>17.525413306731451</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="5">
         <v>18.232273161984427</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="5">
         <v>23.43576344022215</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="5">
         <v>44.175668273758376</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="5">
         <v>50.736471987426619</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G61" s="5">
         <v>60.799576469210933</v>
       </c>
-      <c r="H61" s="7">
+      <c r="H61" s="5">
         <v>48.562265441016166</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I61" s="5">
         <v>37.125258730730621</v>
       </c>
-      <c r="J61" s="17">
+      <c r="J61" s="15">
         <v>47.129104053675675</v>
       </c>
-      <c r="K61" s="17">
+      <c r="K61" s="15">
         <v>42.625188186830151</v>
       </c>
-      <c r="L61" s="25">
+      <c r="L61" s="15">
         <v>49.248592186140442</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" ht="15" customHeight="1">
-      <c r="A62" s="10" t="s">
+      <c r="M61" s="19">
+        <v>55.934775167355177</v>
+      </c>
+      <c r="N61" s="19">
+        <v>62.890448485752025</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15" customHeight="1">
+      <c r="A62" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="5">
         <v>6.6016345472839637</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="5">
         <v>7.6598047172536488</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" s="5">
         <v>11.028156676161249</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="5">
         <v>14.265845303955338</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="5">
         <v>14.216159015184644</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G62" s="5">
         <v>11.3739217829762</v>
       </c>
-      <c r="H62" s="7">
+      <c r="H62" s="5">
         <v>7.1349387521506529</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I62" s="5">
         <v>11.631305868457293</v>
       </c>
-      <c r="J62" s="17">
+      <c r="J62" s="15">
         <v>8.2815225462411703</v>
       </c>
-      <c r="K62" s="17">
+      <c r="K62" s="15">
         <v>11.672040046126163</v>
       </c>
-      <c r="L62" s="25">
+      <c r="L62" s="15">
         <v>4.1552058272347603</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="15" customHeight="1">
-      <c r="A63" s="13" t="s">
+      <c r="M62" s="19">
+        <v>3.6844881237938609</v>
+      </c>
+      <c r="N62" s="19">
+        <v>5.1073506399057571</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="15" customHeight="1">
+      <c r="A63" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="4">
         <v>149.83858302066511</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="4">
         <v>158.69824526824684</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="4">
         <v>181.0377315349061</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="4">
         <v>232.36272111840162</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F63" s="4">
         <v>263.09099419294643</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G63" s="4">
         <v>271.0415436910676</v>
       </c>
-      <c r="H63" s="6">
+      <c r="H63" s="4">
         <v>261.190949578242</v>
       </c>
-      <c r="I63" s="6">
+      <c r="I63" s="4">
         <v>232.10782245330438</v>
       </c>
-      <c r="J63" s="16">
+      <c r="J63" s="14">
         <v>257.70676707758935</v>
       </c>
-      <c r="K63" s="16">
+      <c r="K63" s="14">
         <v>260.48773268667691</v>
       </c>
-      <c r="L63" s="24">
+      <c r="L63" s="14">
         <v>284.64605899447963</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" ht="15" customHeight="1">
-      <c r="A64" s="14" t="s">
+      <c r="M63" s="18">
+        <v>347.4657682697129</v>
+      </c>
+      <c r="N63" s="18">
+        <v>395.0507304479778</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="15" customHeight="1">
+      <c r="A64" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B64" s="8">
+      <c r="B64" s="6">
         <v>188.95441950516528</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="6">
         <v>199.19303909747185</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="6">
         <v>218.34490994507738</v>
       </c>
-      <c r="E64" s="8">
+      <c r="E64" s="6">
         <v>268.50396528374017</v>
       </c>
-      <c r="F64" s="8">
+      <c r="F64" s="6">
         <v>299.2146364324899</v>
       </c>
-      <c r="G64" s="8">
+      <c r="G64" s="6">
         <v>308.72519746784502</v>
       </c>
-      <c r="H64" s="8">
+      <c r="H64" s="6">
         <v>295.89815220226757</v>
       </c>
-      <c r="I64" s="8">
+      <c r="I64" s="6">
         <v>265.44252044841841</v>
       </c>
-      <c r="J64" s="18">
+      <c r="J64" s="16">
         <v>291.22216080907225</v>
       </c>
-      <c r="K64" s="18">
+      <c r="K64" s="16">
         <v>295.5075673769166</v>
       </c>
-      <c r="L64" s="26">
+      <c r="L64" s="16">
         <v>326.50605682130345</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" ht="15" customHeight="1">
-      <c r="A65" s="29" t="s">
+      <c r="M64" s="20">
+        <v>397.50616603194493</v>
+      </c>
+      <c r="N64" s="20">
+        <v>451.07640805193648</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="15" customHeight="1">
+      <c r="A65" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B65" s="29"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29"/>
-      <c r="L65" s="29"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-    </row>
-    <row r="66" spans="1:15" ht="30" customHeight="1">
-      <c r="A66" s="30" t="s">
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="22"/>
+    </row>
+    <row r="66" spans="1:14" ht="15" customHeight="1">
+      <c r="A66" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="30"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="30"/>
-    </row>
-    <row r="67" spans="1:15" ht="45" customHeight="1">
-      <c r="A67" s="27" t="s">
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="23"/>
+    </row>
+    <row r="67" spans="1:14" ht="45" customHeight="1">
+      <c r="A67" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="27"/>
-      <c r="L67" s="27"/>
-    </row>
-    <row r="68" spans="1:15">
-      <c r="A68" s="27"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="27"/>
-    </row>
-    <row r="69" spans="1:15">
-      <c r="A69" s="27"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="27"/>
-    </row>
-    <row r="70" spans="1:15">
-      <c r="A70" s="27"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="27"/>
-    </row>
-    <row r="71" spans="1:15">
-      <c r="A71" s="27"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="27"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="24"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="24"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="24"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="24"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="24"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="24"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="A65:L65"/>
-    <mergeCell ref="A66:L66"/>
     <mergeCell ref="A68:J68"/>
     <mergeCell ref="A69:J69"/>
     <mergeCell ref="A70:J70"/>
     <mergeCell ref="A71:J71"/>
-    <mergeCell ref="A67:L67"/>
+    <mergeCell ref="A67:N67"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A23:N23"/>
+    <mergeCell ref="A45:N45"/>
+    <mergeCell ref="A65:N65"/>
+    <mergeCell ref="A66:N66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
